--- a/src/assets/new.xlsx
+++ b/src/assets/new.xlsx
@@ -12,13 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A1:$P40</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>客戶 編號/名稱</t>
   </si>
@@ -246,6 +245,14 @@
   <si>
     <t>李柏青</t>
   </si>
+  <si>
+    <t>取 卡 方 式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>114709/台北市內湖區舊宗路二段181巷6號4樓</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +389,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -623,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,6 +693,73 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -731,75 +811,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,58 +1193,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="33" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1259,9 +1275,9 @@
       <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1649,51 +1665,55 @@
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
+      <c r="A24" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -1702,23 +1722,23 @@
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1757,42 +1777,42 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1813,33 +1833,33 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="15"/>
       <c r="H33" s="14"/>
       <c r="I33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="16" t="s">
@@ -1848,19 +1868,19 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="46">
+      <c r="M34" s="23">
         <v>227989967</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="3" t="s">
@@ -1874,12 +1894,12 @@
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
       <c r="I36" s="3" t="s">
         <v>49</v>
       </c>
@@ -1889,45 +1909,34 @@
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A34:F39"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
-    <mergeCell ref="K24:O25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:O27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:G2"/>
@@ -1937,6 +1946,17 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="K24:O25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:F39"/>
+    <mergeCell ref="M34:O34"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/new.xlsx
+++ b/src/assets/new.xlsx
@@ -17,25 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>客戶 編號/名稱</t>
-  </si>
-  <si>
-    <r>
-      <t>TT6112060_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鉅泰創新股份有限公司</t>
-    </r>
   </si>
   <si>
     <t>序號</t>
@@ -247,11 +231,11 @@
   </si>
   <si>
     <t>取 卡 方 式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>114709/台北市內湖區舊宗路二段181巷6號4樓</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -261,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,14 +331,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
       <u val="double"/>
       <sz val="12"/>
       <name val="標楷體"/>
@@ -636,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +669,93 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -703,9 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -733,89 +793,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,29 +893,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table名稱" displayName="table名稱" ref="A4:O5" headerRowCount="0">
-  <tableColumns count="15">
-    <tableColumn id="1" name="流水號" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="車牌"/>
-    <tableColumn id="3" name="超級柴油"/>
-    <tableColumn id="4" name="無鉛汽油"/>
-    <tableColumn id="5" name="酒精汽油"/>
-    <tableColumn id="6" name="不限油品"/>
-    <tableColumn id="7" name="尿素溶液"/>
-    <tableColumn id="8" name="新增"/>
-    <tableColumn id="9" name="停用"/>
-    <tableColumn id="10" name="遺失"/>
-    <tableColumn id="11" name="故障"/>
-    <tableColumn id="12" name="原卡復油"/>
-    <tableColumn id="13" name="保管單位"/>
-    <tableColumn id="14" name="公司名稱"/>
-    <tableColumn id="15" name="備註"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1193,137 +1182,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="55" t="s">
+      <c r="N2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="O2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="57" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="67">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
       <c r="O5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -1342,7 +1329,7 @@
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -1361,7 +1348,7 @@
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1380,7 +1367,7 @@
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1399,7 +1386,7 @@
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1418,7 +1405,7 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1437,7 +1424,7 @@
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1456,7 +1443,7 @@
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1475,7 +1462,7 @@
     </row>
     <row r="14" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1494,7 +1481,7 @@
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1513,7 +1500,7 @@
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1532,7 +1519,7 @@
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1551,7 +1538,7 @@
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1570,7 +1557,7 @@
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1589,7 +1576,7 @@
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1608,7 +1595,7 @@
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1628,7 +1615,7 @@
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -1647,7 +1634,7 @@
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -1665,55 +1652,55 @@
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="A26" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -1722,27 +1709,27 @@
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="A27" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
     </row>
     <row r="28" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1760,7 +1747,7 @@
     </row>
     <row r="29" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1777,46 +1764,46 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1833,58 +1820,58 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="15"/>
       <c r="H33" s="14"/>
       <c r="I33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="23">
+      <c r="M34" s="47">
         <v>227989967</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
     </row>
     <row r="35" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M35" s="17">
         <f>TODAY()</f>
@@ -1894,49 +1881,60 @@
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
       <c r="I36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="39" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:F39"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="K24:O25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:O27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:G2"/>
@@ -1946,24 +1944,10 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
-    <mergeCell ref="K24:O25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A34:F39"/>
-    <mergeCell ref="M34:O34"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>